--- a/results_xlsx/chybi_seminarici.xlsx
+++ b/results_xlsx/chybi_seminarici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
   <si>
     <t>katedra</t>
   </si>
@@ -142,6 +142,9 @@
     <t>LTP</t>
   </si>
   <si>
+    <t>P115</t>
+  </si>
+  <si>
     <t>PAP</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>HOD/SEM</t>
+  </si>
+  <si>
+    <t>TYD/SEM</t>
   </si>
   <si>
     <t>HOD/TYD</t>
@@ -219,8 +225,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F37" totalsRowShown="0">
-  <autoFilter ref="A1:F37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F38" totalsRowShown="0">
+  <autoFilter ref="A1:F38"/>
   <tableColumns count="6">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,13 +559,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -571,13 +577,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -589,13 +595,13 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -607,13 +613,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -625,13 +631,13 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,13 +649,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -661,13 +667,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -679,13 +685,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -697,13 +703,13 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -715,13 +721,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -733,13 +739,13 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -751,13 +757,13 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -769,13 +775,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -787,13 +793,13 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -805,13 +811,13 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -823,13 +829,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -841,13 +847,13 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -859,13 +865,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -877,13 +883,13 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -895,13 +901,13 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -913,13 +919,13 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -931,13 +937,13 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -949,13 +955,13 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -967,13 +973,13 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -985,13 +991,13 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1003,13 +1009,13 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1021,13 +1027,13 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1039,13 +1045,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1057,13 +1063,13 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1075,13 +1081,13 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1093,13 +1099,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1111,13 +1117,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,31 +1135,31 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2">
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1165,31 +1171,49 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="2">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>47</v>
+      <c r="F38" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
